--- a/uploadFile/excels/广西企业及项目复工复产情况表.xlsx
+++ b/uploadFile/excels/广西企业及项目复工复产情况表.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11800"/>
+    <workbookView windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -40,37 +40,23 @@
         <rFont val="仿宋_GB2312"/>
         <charset val="134"/>
       </rPr>
-      <t>数</t>
+      <t>数（家/个）</t>
     </r>
+  </si>
+  <si>
+    <t>复工率（%）</t>
+  </si>
+  <si>
+    <t>跟踪统计企业合计</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="14"/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="仿宋_GB2312"/>
         <charset val="134"/>
       </rPr>
-      <t>（家/个</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <t>复工率（%）</t>
-  </si>
-  <si>
-    <t>跟踪统计企业合计</t>
-  </si>
-  <si>
-    <r>
       <t>＃</t>
     </r>
     <r>
@@ -116,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -143,14 +129,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,28 +202,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -194,13 +210,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -211,15 +220,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,60 +266,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,103 +294,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,60 +457,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,8 +538,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,23 +547,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,6 +568,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -612,11 +592,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,124 +637,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -777,26 +763,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -810,9 +796,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1142,8 +1125,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -1157,173 +1140,173 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="46.5" customHeight="1" spans="1:5">
       <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" ht="39.75" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>21831</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>10687</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>49</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>1055</v>
       </c>
     </row>
     <row r="4" ht="39.75" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>6155</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>3153</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>51.2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>252</v>
       </c>
     </row>
     <row r="5" ht="39.75" spans="1:5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>2552</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>1482</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>58.1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>125</v>
       </c>
     </row>
     <row r="6" ht="52.75" spans="1:5">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>5399</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>2896</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>53.6</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>223</v>
       </c>
     </row>
     <row r="7" ht="26.75" spans="1:5">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>238</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>191</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>80.3</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="8" ht="39.75" spans="1:5">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>1982</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>1319</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>66.5</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>39</v>
       </c>
     </row>
     <row r="9" ht="26.75" spans="1:5">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>2699</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>503</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>18.6</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>290</v>
       </c>
     </row>
     <row r="10" ht="26.75" spans="1:5">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>1761</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>608</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>34.5</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>43</v>
       </c>
     </row>
     <row r="11" ht="26.75" spans="1:5">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>1045</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>535</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>51.2</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>81</v>
       </c>
     </row>
@@ -1331,16 +1314,16 @@
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>859</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>193</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>22.5</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>84</v>
       </c>
     </row>
@@ -1352,19 +1335,19 @@
       <c r="E13" s="3"/>
     </row>
     <row r="14" ht="39.75" spans="1:5">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>6559</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>163</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>2.5</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>84</v>
       </c>
     </row>
